--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject14.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject14.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -134,7 +134,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0.90857776744956809</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -146,7 +146,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1" s="0">
         <v>0</v>
@@ -170,7 +170,7 @@
         <v>0</v>
       </c>
       <c r="O1" s="0">
-        <v>0</v>
+        <v>0.54288967916208297</v>
       </c>
       <c r="P1" s="0">
         <v>0</v>
@@ -188,7 +188,7 @@
         <v>0</v>
       </c>
       <c r="U1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V1" s="0">
         <v>0</v>
@@ -326,10 +326,10 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>0</v>
+        <v>0.50613218543717897</v>
       </c>
       <c r="BP1" s="0">
-        <v>0</v>
+        <v>0.6173742651913996</v>
       </c>
     </row>
     <row r="2">
@@ -340,7 +340,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>0.50581299451304862</v>
       </c>
       <c r="D2" s="0">
         <v>0</v>
@@ -391,7 +391,7 @@
         <v>0</v>
       </c>
       <c r="T2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" s="0">
         <v>0</v>
@@ -463,7 +463,7 @@
         <v>0</v>
       </c>
       <c r="AR2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS2" s="0">
         <v>0</v>
@@ -490,13 +490,13 @@
         <v>0</v>
       </c>
       <c r="BA2" s="0">
-        <v>0</v>
+        <v>0.76162225831497432</v>
       </c>
       <c r="BB2" s="0">
         <v>0</v>
       </c>
       <c r="BC2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="0">
         <v>0</v>
@@ -511,7 +511,7 @@
         <v>0</v>
       </c>
       <c r="BH2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="0">
         <v>0</v>
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="BL2" s="0">
-        <v>0</v>
+        <v>0.91734552667798186</v>
       </c>
       <c r="BM2" s="0">
         <v>0</v>
@@ -540,19 +540,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0.79135016486213816</v>
       </c>
       <c r="B3" s="0">
-        <v>0</v>
+        <v>0.94238156887147295</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0.59564866301991515</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0.92363790892963282</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="0">
         <v>0</v>
@@ -752,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0.55859267071681173</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0.79123943850355305</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="S4" s="0">
-        <v>0</v>
+        <v>0.97831523863977532</v>
       </c>
       <c r="T4" s="0">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0.77710916880275049</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0.99696165797338665</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0.69718219448208996</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1167,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0.56157066932997401</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0.69081088374733501</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0</v>
+        <v>0.98411217684819685</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0.68217423585159132</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="0">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="AO6" s="0">
-        <v>0</v>
+        <v>0.77893168565552084</v>
       </c>
       <c r="AP6" s="0">
         <v>0</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="0">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0.80302006553299365</v>
       </c>
       <c r="F7" s="0">
-        <v>0</v>
+        <v>0.82636531918632627</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0.76598992227000195</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="0">
-        <v>0</v>
+        <v>0.56509924888810992</v>
       </c>
       <c r="AL7" s="0">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0.82511132825207745</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0.71896988369134252</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="0">
-        <v>0</v>
+        <v>0.95174943009481949</v>
       </c>
       <c r="T8" s="0">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="0">
-        <v>0</v>
+        <v>0.82733756859705021</v>
       </c>
       <c r="AC8" s="0">
         <v>0</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="AT8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU8" s="0">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="BM8" s="0">
-        <v>0</v>
+        <v>0.53861300486723795</v>
       </c>
       <c r="BN8" s="0">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0.54774604592338239</v>
       </c>
       <c r="H9" s="0">
         <v>0</v>
@@ -1803,13 +1803,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0.90237793757470097</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="0">
-        <v>0</v>
+        <v>0.68311202186998088</v>
       </c>
       <c r="M9" s="0">
         <v>0</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0.5405325045821987</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0.50636589233540741</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>0</v>
+        <v>0.64260283642990368</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="AZ10" s="0">
-        <v>0</v>
+        <v>0.97947392091901975</v>
       </c>
       <c r="BA10" s="0">
         <v>0</v>
@@ -2156,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="BG10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="0">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
@@ -2221,10 +2221,10 @@
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>0</v>
+        <v>0.84650860616132095</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="0">
-        <v>0</v>
+        <v>0.95498377151947489</v>
       </c>
       <c r="U11" s="0">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="0">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="AI11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="0">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="BN11" s="0">
-        <v>0</v>
+        <v>0.79132947725125402</v>
       </c>
       <c r="BO11" s="0">
         <v>0</v>
@@ -2418,13 +2418,13 @@
         <v>0</v>
       </c>
       <c r="I12" s="0">
-        <v>0</v>
+        <v>0.62094706731405813</v>
       </c>
       <c r="J12" s="0">
-        <v>0</v>
+        <v>0.95763051443042213</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="0">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="0">
-        <v>0</v>
+        <v>0.76142900880100051</v>
       </c>
       <c r="AD12" s="0">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="AH12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI12" s="0">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="AZ12" s="0">
-        <v>0</v>
+        <v>0.71859990068342205</v>
       </c>
       <c r="BA12" s="0">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0</v>
+        <v>0.81848426346739156</v>
       </c>
       <c r="L13" s="0">
         <v>0</v>
@@ -2639,10 +2639,10 @@
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0.6037777638085795</v>
       </c>
       <c r="O13" s="0">
-        <v>0</v>
+        <v>0.76471343332236463</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="Y13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="0">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0.55264948317746398</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0.92749618169597614</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0.6176369080437778</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="AG14" s="0">
-        <v>0</v>
+        <v>0.57653571387069247</v>
       </c>
       <c r="AH14" s="0">
         <v>0</v>
@@ -3012,7 +3012,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0</v>
+        <v>0.57641252371265828</v>
       </c>
       <c r="B15" s="0">
         <v>0</v>
@@ -3048,19 +3048,19 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0</v>
+        <v>0.66999757522793124</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0.977523975889241</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0.85542460553081923</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="BI15" s="0">
-        <v>0</v>
+        <v>0.98237686697124971</v>
       </c>
       <c r="BJ15" s="0">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="BO15" s="0">
-        <v>0</v>
+        <v>0.75419995570038156</v>
       </c>
       <c r="BP15" s="0">
         <v>0</v>
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0.88839759665890594</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0.93387874026421835</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="AA16" s="0">
-        <v>0</v>
+        <v>0.96784950398960912</v>
       </c>
       <c r="AB16" s="0">
         <v>0</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="BE16" s="0">
-        <v>0</v>
+        <v>0.80321310712466598</v>
       </c>
       <c r="BF16" s="0">
         <v>0</v>
@@ -3466,19 +3466,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0.96152938664416854</v>
       </c>
       <c r="S17" s="0">
-        <v>0</v>
+        <v>0.69325175765526159</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="AO17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP17" s="0">
         <v>0</v>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="BH17" s="0">
-        <v>0</v>
+        <v>0.99756530384697739</v>
       </c>
       <c r="BI17" s="0">
         <v>0</v>
@@ -3675,19 +3675,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0.96797069199275576</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>0</v>
+        <v>0.82075424612048975</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="AI18" s="0">
-        <v>0</v>
+        <v>0.93544041311332138</v>
       </c>
       <c r="AJ18" s="0">
         <v>0</v>
@@ -3774,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="AW18" s="0">
-        <v>1</v>
+        <v>0.78293920612147772</v>
       </c>
       <c r="AX18" s="0">
         <v>0</v>
@@ -3792,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="BC18" s="0">
-        <v>0</v>
+        <v>0.75993841091242764</v>
       </c>
       <c r="BD18" s="0">
         <v>0</v>
@@ -3804,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="BG18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH18" s="0">
         <v>0</v>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="0">
-        <v>0</v>
+        <v>0.6236658566171337</v>
       </c>
       <c r="E19" s="0">
         <v>0</v>
@@ -3857,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="0">
-        <v>0</v>
+        <v>0.73322692880196216</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="0">
         <v>0</v>
@@ -3884,19 +3884,19 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0</v>
+        <v>0.74784421934768019</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0.72607227614500136</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="BA19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB19" s="0">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="0">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="0">
-        <v>0</v>
+        <v>0.61884684233203768</v>
       </c>
       <c r="L20" s="0">
         <v>0</v>
@@ -4093,25 +4093,25 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>0</v>
+        <v>0.95932445662095667</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0.51595153400674032</v>
       </c>
       <c r="V20" s="0">
-        <v>0</v>
+        <v>0.62094461670481149</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
       </c>
       <c r="X20" s="0">
-        <v>0</v>
+        <v>0.79752326907089421</v>
       </c>
       <c r="Y20" s="0">
         <v>0</v>
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="BD20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE20" s="0">
         <v>0</v>
@@ -4216,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="BG20" s="0">
-        <v>0</v>
+        <v>0.66796871190495455</v>
       </c>
       <c r="BH20" s="0">
         <v>0</v>
@@ -4248,7 +4248,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" s="0">
         <v>0</v>
@@ -4302,19 +4302,19 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0.69420085734265669</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0.89765911058623948</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0.72311986462848243</v>
       </c>
       <c r="W21" s="0">
-        <v>0</v>
+        <v>0.8310962431291854</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="BI21" s="0">
-        <v>0</v>
+        <v>0.50005655736422439</v>
       </c>
       <c r="BJ21" s="0">
         <v>0</v>
@@ -4511,22 +4511,22 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>0</v>
+        <v>0.82987138407112093</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0.64889378505391337</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0.8592626117730866</v>
       </c>
       <c r="X22" s="0">
-        <v>1</v>
+        <v>0.85137562759578378</v>
       </c>
       <c r="Y22" s="0">
-        <v>0</v>
+        <v>0.56220930271478575</v>
       </c>
       <c r="Z22" s="0">
         <v>0</v>
@@ -4589,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="AT22" s="0">
-        <v>0</v>
+        <v>0.70557852391333697</v>
       </c>
       <c r="AU22" s="0">
         <v>0</v>
@@ -4720,19 +4720,19 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>0</v>
+        <v>0.55560298824483501</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0.86495942426175643</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0.54859074076683145</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4810,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="AY23" s="0">
-        <v>0</v>
+        <v>0.93389752844565654</v>
       </c>
       <c r="AZ23" s="0">
         <v>0</v>
@@ -4923,25 +4923,25 @@
         <v>0</v>
       </c>
       <c r="T24" s="0">
-        <v>0</v>
+        <v>0.54458975504328377</v>
       </c>
       <c r="U24" s="0">
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>1</v>
+        <v>0.77833423355246301</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0.92566355582351145</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>0</v>
+        <v>0.61303560330334594</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -4980,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="AM24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN24" s="0">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" s="0">
         <v>0</v>
@@ -5135,22 +5135,22 @@
         <v>0</v>
       </c>
       <c r="V25" s="0">
-        <v>0</v>
+        <v>0.83911120180870913</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="0">
-        <v>0</v>
+        <v>0.74771552585574785</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0.85187950786230926</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5192,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="AO25" s="0">
-        <v>0</v>
+        <v>0.53391319009309313</v>
       </c>
       <c r="AP25" s="0">
         <v>0</v>
@@ -5347,19 +5347,19 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="0">
-        <v>0</v>
+        <v>0.68513186254370462</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="AF26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="0">
         <v>0</v>
@@ -5395,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="AN26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="0">
         <v>0</v>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="AW26" s="0">
-        <v>0</v>
+        <v>0.78229538925007391</v>
       </c>
       <c r="AX26" s="0">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="BE26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF26" s="0">
         <v>0</v>
@@ -5458,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="BI26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ26" s="0">
         <v>0</v>
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="0">
-        <v>0</v>
+        <v>0.6102350444089879</v>
       </c>
       <c r="Q27" s="0">
         <v>0</v>
@@ -5556,19 +5556,19 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0.54504956236287061</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0</v>
+        <v>0.80414101688276374</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0.70278718447414645</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5667,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="BJ27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK27" s="0">
         <v>0</v>
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="BP27" s="0">
-        <v>0</v>
+        <v>0.54758261758543625</v>
       </c>
     </row>
     <row r="28">
@@ -5711,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="0">
-        <v>0</v>
+        <v>0.87643143747697461</v>
       </c>
       <c r="I28" s="0">
         <v>0</v>
@@ -5765,19 +5765,19 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0</v>
+        <v>0.64219274872529675</v>
       </c>
       <c r="AA28" s="0">
-        <v>0</v>
+        <v>0.89943472178856365</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>1</v>
+        <v>0.83026872676076091</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="BO28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP28" s="0">
         <v>0</v>
@@ -5911,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="0">
         <v>0</v>
@@ -5926,10 +5926,10 @@
         <v>0</v>
       </c>
       <c r="K29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="0">
-        <v>0</v>
+        <v>0.81651812125869283</v>
       </c>
       <c r="M29" s="0">
         <v>0</v>
@@ -5974,16 +5974,16 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0.52072348279310832</v>
       </c>
       <c r="AB29" s="0">
-        <v>1</v>
+        <v>0.61496816954558087</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0.60414575678988169</v>
       </c>
       <c r="AE29" s="0">
         <v>0</v>
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="AL29" s="0">
-        <v>0</v>
+        <v>0.80872614217103578</v>
       </c>
       <c r="AM29" s="0">
         <v>0</v>
@@ -6183,10 +6183,10 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0.79010521132929801</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
@@ -6195,10 +6195,10 @@
         <v>0</v>
       </c>
       <c r="AF30" s="0">
-        <v>0</v>
+        <v>0.66165226430587532</v>
       </c>
       <c r="AG30" s="0">
-        <v>0</v>
+        <v>0.53399324897443745</v>
       </c>
       <c r="AH30" s="0">
         <v>0</v>
@@ -6228,7 +6228,7 @@
         <v>0</v>
       </c>
       <c r="AQ30" s="0">
-        <v>0</v>
+        <v>0.96725976646402345</v>
       </c>
       <c r="AR30" s="0">
         <v>0</v>
@@ -6240,13 +6240,13 @@
         <v>0</v>
       </c>
       <c r="AU30" s="0">
-        <v>0</v>
+        <v>0.73004246428833985</v>
       </c>
       <c r="AV30" s="0">
         <v>0</v>
       </c>
       <c r="AW30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX30" s="0">
         <v>0</v>
@@ -6285,7 +6285,7 @@
         <v>0</v>
       </c>
       <c r="BJ30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK30" s="0">
         <v>0</v>
@@ -6401,10 +6401,10 @@
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0.79584439042381505</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6449,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="AV31" s="0">
-        <v>0</v>
+        <v>0.51579263049573099</v>
       </c>
       <c r="AW31" s="0">
         <v>0</v>
@@ -6476,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="BE31" s="0">
-        <v>0</v>
+        <v>0.73802895309655459</v>
       </c>
       <c r="BF31" s="0">
         <v>0</v>
@@ -6589,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="Z32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="0">
         <v>0</v>
@@ -6601,19 +6601,19 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>0</v>
+        <v>0.5518009192415998</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0.95717108671298656</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="0">
-        <v>0</v>
+        <v>0.68359465084969939</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6679,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="BD32" s="0">
-        <v>0</v>
+        <v>0.83160765221258337</v>
       </c>
       <c r="BE32" s="0">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="BP32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -6759,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="0">
-        <v>0</v>
+        <v>0.5479840800949396</v>
       </c>
       <c r="O33" s="0">
         <v>0</v>
@@ -6807,19 +6807,19 @@
         <v>0</v>
       </c>
       <c r="AD33" s="0">
-        <v>0</v>
+        <v>0.85694789969865748</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="0">
         <v>0</v>
@@ -6840,7 +6840,7 @@
         <v>0</v>
       </c>
       <c r="AO33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP33" s="0">
         <v>0</v>
@@ -6885,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="BD33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE33" s="0">
         <v>0</v>
@@ -6906,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="BK33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL33" s="0">
         <v>0</v>
@@ -6959,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" s="0">
         <v>0</v>
@@ -7019,19 +7019,19 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0</v>
+        <v>0.509377029062551</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0.93315927980153424</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0</v>
+        <v>0.85975321853527498</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="AW34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX34" s="0">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="0">
         <v>0</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="R35" s="0">
-        <v>0</v>
+        <v>0.56861236927128633</v>
       </c>
       <c r="S35" s="0">
         <v>0</v>
@@ -7231,16 +7231,16 @@
         <v>0</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0.53191830707136178</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0.78709739717464389</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7306,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="BG35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH35" s="0">
         <v>0</v>
@@ -7437,19 +7437,19 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0</v>
+        <v>0.73465437641279319</v>
       </c>
       <c r="AI36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0.52885598305139103</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7536,7 +7536,7 @@
         <v>0</v>
       </c>
       <c r="BO36" s="0">
-        <v>0</v>
+        <v>0.92880039097368172</v>
       </c>
       <c r="BP36" s="0">
         <v>0</v>
@@ -7562,7 +7562,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="0">
-        <v>0</v>
+        <v>0.74084123466414242</v>
       </c>
       <c r="H37" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0.6407792696565735</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0.81430768043148061</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0.97791225236266466</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0.92789696494562479</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7709,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="BD37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE37" s="0">
         <v>0</v>
@@ -7834,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="0">
-        <v>0</v>
+        <v>0.90873099797151324</v>
       </c>
       <c r="AD38" s="0">
         <v>0</v>
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0.50941622930109265</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0.7107569563345576</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0.595619197257377</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -8025,7 +8025,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="0">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0.81023027651874158</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0.59590842181949855</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0.80953868684292218</v>
       </c>
       <c r="AO39" s="0">
-        <v>1</v>
+        <v>0.77464261105163434</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8145,7 +8145,7 @@
         <v>0</v>
       </c>
       <c r="BL39" s="0">
-        <v>0</v>
+        <v>0.76723603706020294</v>
       </c>
       <c r="BM39" s="0">
         <v>0</v>
@@ -8154,7 +8154,7 @@
         <v>0</v>
       </c>
       <c r="BO39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP39" s="0">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="Z40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA40" s="0">
         <v>0</v>
@@ -8273,10 +8273,10 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0.95894463578791989</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0.98473017160078924</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0.97921125650183138</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8324,7 +8324,7 @@
         <v>0</v>
       </c>
       <c r="BC40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD40" s="0">
         <v>0</v>
@@ -8354,7 +8354,7 @@
         <v>0</v>
       </c>
       <c r="BM40" s="0">
-        <v>0</v>
+        <v>0.79576085507985284</v>
       </c>
       <c r="BN40" s="0">
         <v>0</v>
@@ -8383,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="0">
-        <v>0</v>
+        <v>0.70404417132840091</v>
       </c>
       <c r="G41" s="0">
         <v>0</v>
@@ -8416,7 +8416,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41" s="0">
         <v>0</v>
@@ -8440,7 +8440,7 @@
         <v>0</v>
       </c>
       <c r="Y41" s="0">
-        <v>0</v>
+        <v>0.94238932290495681</v>
       </c>
       <c r="Z41" s="0">
         <v>0</v>
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="AG41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH41" s="0">
         <v>0</v>
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>1</v>
+        <v>0.8575503709081771</v>
       </c>
       <c r="AN41" s="0">
         <v>0</v>
@@ -8491,10 +8491,10 @@
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8503,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="AT41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU41" s="0">
         <v>0</v>
@@ -8691,19 +8691,19 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0.88909937342557699</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0.52356791235319922</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0.56065378974661906</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8867,7 +8867,7 @@
         <v>0</v>
       </c>
       <c r="AD43" s="0">
-        <v>0</v>
+        <v>0.75829679136759165</v>
       </c>
       <c r="AE43" s="0">
         <v>0</v>
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0.58535744654139887</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0.7622213105350224</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0.88246936329819525</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8989,7 +8989,7 @@
         <v>0</v>
       </c>
       <c r="B44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" s="0">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0.98484275032008139</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0.97273192343797754</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9136,7 +9136,7 @@
         <v>0</v>
       </c>
       <c r="AY44" s="0">
-        <v>0</v>
+        <v>0.6583330049021483</v>
       </c>
       <c r="AZ44" s="0">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="BK44" s="0">
-        <v>0</v>
+        <v>0.94345499448551051</v>
       </c>
       <c r="BL44" s="0">
         <v>0</v>
@@ -9198,7 +9198,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" s="0">
         <v>0</v>
@@ -9318,19 +9318,19 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0.97226618587862534</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0.83031309351407401</v>
       </c>
       <c r="AU45" s="0">
-        <v>0</v>
+        <v>0.70505503972796602</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9375,7 +9375,7 @@
         <v>0</v>
       </c>
       <c r="BJ45" s="0">
-        <v>0</v>
+        <v>0.59793853261961294</v>
       </c>
       <c r="BK45" s="0">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" s="0">
         <v>0</v>
@@ -9461,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="V46" s="0">
-        <v>0</v>
+        <v>0.67162809655387301</v>
       </c>
       <c r="W46" s="0">
         <v>0</v>
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="AO46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP46" s="0">
         <v>0</v>
@@ -9527,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0.86612084377235421</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV46" s="0">
-        <v>0</v>
+        <v>0.89953647124635716</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9691,7 +9691,7 @@
         <v>0</v>
       </c>
       <c r="AD47" s="0">
-        <v>0</v>
+        <v>0.93179365677817205</v>
       </c>
       <c r="AE47" s="0">
         <v>0</v>
@@ -9736,19 +9736,19 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>0</v>
+        <v>0.95090214985537114</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0.87203526097433981</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9805,7 +9805,7 @@
         <v>0</v>
       </c>
       <c r="BP47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -9900,7 +9900,7 @@
         <v>0</v>
       </c>
       <c r="AE48" s="0">
-        <v>0</v>
+        <v>0.7595440454290433</v>
       </c>
       <c r="AF48" s="0">
         <v>0</v>
@@ -9945,19 +9945,19 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0</v>
+        <v>0.80087821621395783</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0.55167472245964877</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10067,7 +10067,7 @@
         <v>0</v>
       </c>
       <c r="R49" s="0">
-        <v>1</v>
+        <v>0.66511174447351595</v>
       </c>
       <c r="S49" s="0">
         <v>0</v>
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="Z49" s="0">
-        <v>0</v>
+        <v>0.75512143835692669</v>
       </c>
       <c r="AA49" s="0">
         <v>0</v>
@@ -10103,7 +10103,7 @@
         <v>0</v>
       </c>
       <c r="AD49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE49" s="0">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="AH49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI49" s="0">
         <v>0</v>
@@ -10154,16 +10154,16 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0.5306810510265334</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0.59170210821615332</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0.78782600295506233</v>
       </c>
       <c r="AY49" s="0">
         <v>0</v>
@@ -10363,19 +10363,19 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0.89642852669314155</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0.63469889385705924</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10423,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="BP50" s="0">
-        <v>0</v>
+        <v>0.71134839057729216</v>
       </c>
     </row>
     <row r="51">
@@ -10494,7 +10494,7 @@
         <v>0</v>
       </c>
       <c r="W51" s="0">
-        <v>0</v>
+        <v>0.61887850636758124</v>
       </c>
       <c r="X51" s="0">
         <v>0</v>
@@ -10557,7 +10557,7 @@
         <v>0</v>
       </c>
       <c r="AR51" s="0">
-        <v>0</v>
+        <v>0.92196230513509525</v>
       </c>
       <c r="AS51" s="0">
         <v>0</v>
@@ -10575,16 +10575,16 @@
         <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0.70382638944109654</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="J52" s="0">
-        <v>0</v>
+        <v>0.72033720510767008</v>
       </c>
       <c r="K52" s="0">
         <v>0</v>
       </c>
       <c r="L52" s="0">
-        <v>0</v>
+        <v>0.95373931898906439</v>
       </c>
       <c r="M52" s="0">
         <v>0</v>
@@ -10781,19 +10781,19 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0.69460217461840479</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0.92493357215075633</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0.80503028374822561</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10814,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="BI52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ52" s="0">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="0">
-        <v>0</v>
+        <v>0.82537428123728684</v>
       </c>
       <c r="C53" s="0">
         <v>0</v>
@@ -10894,7 +10894,7 @@
         <v>0</v>
       </c>
       <c r="S53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T53" s="0">
         <v>0</v>
@@ -10990,16 +10990,16 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0.92541080281146004</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0.62872566555885123</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0.52152116308548879</v>
       </c>
       <c r="BC53" s="0">
         <v>0</v>
@@ -11199,19 +11199,19 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0.85927754259126177</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0.59307613602548281</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0.67025802556525971</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0.61588949390090475</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11255,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="B55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" s="0">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="R55" s="0">
-        <v>0</v>
+        <v>0.97765553253272763</v>
       </c>
       <c r="S55" s="0">
         <v>0</v>
@@ -11369,7 +11369,7 @@
         <v>0</v>
       </c>
       <c r="AN55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO55" s="0">
         <v>0</v>
@@ -11411,16 +11411,16 @@
         <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0.90677663940177866</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0</v>
+        <v>0.51607160542515951</v>
       </c>
       <c r="BE55" s="0">
-        <v>0</v>
+        <v>0.92710845165163569</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11515,7 +11515,7 @@
         <v>0</v>
       </c>
       <c r="T56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U56" s="0">
         <v>0</v>
@@ -11551,10 +11551,10 @@
         <v>0</v>
       </c>
       <c r="AF56" s="0">
-        <v>0</v>
+        <v>0.86028170716746599</v>
       </c>
       <c r="AG56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH56" s="0">
         <v>0</v>
@@ -11566,7 +11566,7 @@
         <v>0</v>
       </c>
       <c r="AK56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL56" s="0">
         <v>0</v>
@@ -11617,25 +11617,25 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0.85856788350170377</v>
       </c>
       <c r="BC56" s="0">
-        <v>0</v>
+        <v>0.72624677209133304</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>0</v>
+        <v>0.84322710344511753</v>
       </c>
       <c r="BF56" s="0">
-        <v>0</v>
+        <v>0.82984625027572334</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
       </c>
       <c r="BH56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI56" s="0">
         <v>0</v>
@@ -11709,7 +11709,7 @@
         <v>0</v>
       </c>
       <c r="P57" s="0">
-        <v>0</v>
+        <v>0.65340423507362932</v>
       </c>
       <c r="Q57" s="0">
         <v>0</v>
@@ -11739,7 +11739,7 @@
         <v>0</v>
       </c>
       <c r="Z57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA57" s="0">
         <v>0</v>
@@ -11754,7 +11754,7 @@
         <v>0</v>
       </c>
       <c r="AE57" s="0">
-        <v>0</v>
+        <v>0.72345127282415966</v>
       </c>
       <c r="AF57" s="0">
         <v>0</v>
@@ -11826,19 +11826,19 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0</v>
+        <v>0.77408785006711178</v>
       </c>
       <c r="BD57" s="0">
-        <v>0</v>
+        <v>0.98880141092256923</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0.53370664291597403</v>
       </c>
       <c r="BG57" s="0">
-        <v>0</v>
+        <v>0.53849100677712158</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11865,7 +11865,7 @@
         <v>0</v>
       </c>
       <c r="BP57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -12035,19 +12035,19 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0</v>
+        <v>0.70233761258984562</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0.66141073483808421</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0.99429339646037485</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0.84765055736115091</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12103,7 +12103,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" s="0">
         <v>0</v>
@@ -12127,13 +12127,13 @@
         <v>0</v>
       </c>
       <c r="R59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S59" s="0">
         <v>0</v>
       </c>
       <c r="T59" s="0">
-        <v>0</v>
+        <v>0.84888054686749692</v>
       </c>
       <c r="U59" s="0">
         <v>0</v>
@@ -12178,7 +12178,7 @@
         <v>0</v>
       </c>
       <c r="AI59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ59" s="0">
         <v>0</v>
@@ -12244,10 +12244,10 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>0</v>
+        <v>0.52283373934805444</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0.95773504148447541</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
@@ -12256,7 +12256,7 @@
         <v>0</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0.92411397332389023</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12285,7 +12285,7 @@
         <v>0</v>
       </c>
       <c r="B60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" s="0">
         <v>0</v>
@@ -12309,7 +12309,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" s="0">
         <v>0</v>
@@ -12330,7 +12330,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="0">
-        <v>0</v>
+        <v>0.69259337093935502</v>
       </c>
       <c r="R60" s="0">
         <v>0</v>
@@ -12447,13 +12447,13 @@
         <v>0</v>
       </c>
       <c r="BD60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE60" s="0">
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0.70791095026111639</v>
       </c>
       <c r="BG60" s="0">
         <v>0</v>
@@ -12480,7 +12480,7 @@
         <v>0</v>
       </c>
       <c r="BO60" s="0">
-        <v>0</v>
+        <v>0.97604116962971599</v>
       </c>
       <c r="BP60" s="0">
         <v>0</v>
@@ -12530,7 +12530,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="0">
-        <v>0</v>
+        <v>0.83221370644713888</v>
       </c>
       <c r="P61" s="0">
         <v>0</v>
@@ -12548,7 +12548,7 @@
         <v>0</v>
       </c>
       <c r="U61" s="0">
-        <v>0</v>
+        <v>0.92367531385165713</v>
       </c>
       <c r="V61" s="0">
         <v>0</v>
@@ -12563,7 +12563,7 @@
         <v>0</v>
       </c>
       <c r="Z61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA61" s="0">
         <v>0</v>
@@ -12641,7 +12641,7 @@
         <v>0</v>
       </c>
       <c r="AZ61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA61" s="0">
         <v>0</v>
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0.55476396870590028</v>
       </c>
       <c r="BH61" s="0">
         <v>0</v>
@@ -12671,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0</v>
+        <v>0.93999782097618656</v>
       </c>
       <c r="BK61" s="0">
         <v>0</v>
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="AA62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB62" s="0">
         <v>0</v>
@@ -12781,7 +12781,7 @@
         <v>0</v>
       </c>
       <c r="AD62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE62" s="0">
         <v>0</v>
@@ -12826,7 +12826,7 @@
         <v>0</v>
       </c>
       <c r="AS62" s="0">
-        <v>0</v>
+        <v>0.89604441386799372</v>
       </c>
       <c r="AT62" s="0">
         <v>0</v>
@@ -12874,19 +12874,19 @@
         <v>0</v>
       </c>
       <c r="BI62" s="0">
-        <v>0</v>
+        <v>0.77416097312829923</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0.5627153131765873</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN62" s="0">
         <v>0</v>
@@ -12996,7 +12996,7 @@
         <v>0</v>
       </c>
       <c r="AG63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH63" s="0">
         <v>0</v>
@@ -13029,7 +13029,7 @@
         <v>0</v>
       </c>
       <c r="AR63" s="0">
-        <v>0</v>
+        <v>0.79023737910039316</v>
       </c>
       <c r="AS63" s="0">
         <v>0</v>
@@ -13083,16 +13083,16 @@
         <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0.68251984785398356</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0</v>
+        <v>0.7670875778428452</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0.73978258762242644</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13109,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="0">
-        <v>0</v>
+        <v>0.91237715195033331</v>
       </c>
       <c r="C64" s="0">
         <v>0</v>
@@ -13220,7 +13220,7 @@
         <v>0</v>
       </c>
       <c r="AM64" s="0">
-        <v>0</v>
+        <v>0.68131710354916764</v>
       </c>
       <c r="AN64" s="0">
         <v>0</v>
@@ -13289,19 +13289,19 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>0</v>
+        <v>0.55250407476710173</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0.70667668004770512</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13333,7 +13333,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="0">
-        <v>0</v>
+        <v>0.86075471907173673</v>
       </c>
       <c r="I65" s="0">
         <v>0</v>
@@ -13429,7 +13429,7 @@
         <v>0</v>
       </c>
       <c r="AN65" s="0">
-        <v>0</v>
+        <v>0.66524447125342179</v>
       </c>
       <c r="AO65" s="0">
         <v>0</v>
@@ -13495,22 +13495,22 @@
         <v>0</v>
       </c>
       <c r="BJ65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0.71812824791357821</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0.97072504043722274</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0.99105769783928843</v>
       </c>
       <c r="BO65" s="0">
-        <v>0</v>
+        <v>0.75331474270355891</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13548,7 +13548,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="0">
-        <v>0</v>
+        <v>0.7004675793760915</v>
       </c>
       <c r="L66" s="0">
         <v>0</v>
@@ -13707,24 +13707,24 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0.56950568374391941</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0.54863731377291036</v>
       </c>
       <c r="BP66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0</v>
+        <v>0.93288534876520612</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13766,7 +13766,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="0">
-        <v>0</v>
+        <v>0.86387936815792998</v>
       </c>
       <c r="P67" s="0">
         <v>0</v>
@@ -13805,7 +13805,7 @@
         <v>0</v>
       </c>
       <c r="AB67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC67" s="0">
         <v>0</v>
@@ -13829,7 +13829,7 @@
         <v>0</v>
       </c>
       <c r="AJ67" s="0">
-        <v>0</v>
+        <v>0.92951118300559332</v>
       </c>
       <c r="AK67" s="0">
         <v>0</v>
@@ -13838,7 +13838,7 @@
         <v>0</v>
       </c>
       <c r="AM67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN67" s="0">
         <v>0</v>
@@ -13901,7 +13901,7 @@
         <v>0</v>
       </c>
       <c r="BH67" s="0">
-        <v>0</v>
+        <v>0.64801759417753169</v>
       </c>
       <c r="BI67" s="0">
         <v>0</v>
@@ -13916,21 +13916,21 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0</v>
+        <v>0.65923131450623806</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0.56280737080821264</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0</v>
+        <v>0.7626068551044507</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0</v>
+        <v>0.62259649206260503</v>
       </c>
       <c r="B68" s="0">
         <v>0</v>
@@ -14008,7 +14008,7 @@
         <v>0</v>
       </c>
       <c r="AA68" s="0">
-        <v>0</v>
+        <v>0.78427524381709168</v>
       </c>
       <c r="AB68" s="0">
         <v>0</v>
@@ -14023,7 +14023,7 @@
         <v>0</v>
       </c>
       <c r="AF68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG68" s="0">
         <v>0</v>
@@ -14068,7 +14068,7 @@
         <v>0</v>
       </c>
       <c r="AU68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV68" s="0">
         <v>0</v>
@@ -14077,7 +14077,7 @@
         <v>0</v>
       </c>
       <c r="AX68" s="0">
-        <v>0</v>
+        <v>0.87330234346463964</v>
       </c>
       <c r="AY68" s="0">
         <v>0</v>
@@ -14098,7 +14098,7 @@
         <v>0</v>
       </c>
       <c r="BE68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>0</v>
+        <v>0.89083045333898614</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject14.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject14.xlsx
@@ -170,7 +170,7 @@
         <v>0</v>
       </c>
       <c r="O1" s="0">
-        <v>0.54288967916208297</v>
+        <v>0.57641252371265828</v>
       </c>
       <c r="P1" s="0">
         <v>0</v>
@@ -326,10 +326,10 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>0.50613218543717897</v>
+        <v>0.93288534876520612</v>
       </c>
       <c r="BP1" s="0">
-        <v>0.6173742651913996</v>
+        <v>0.62259649206260503</v>
       </c>
     </row>
     <row r="2">
@@ -340,7 +340,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.50581299451304862</v>
+        <v>0.94238156887147295</v>
       </c>
       <c r="D2" s="0">
         <v>0</v>
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="BA2" s="0">
-        <v>0.76162225831497432</v>
+        <v>0.82537428123728684</v>
       </c>
       <c r="BB2" s="0">
         <v>0</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.79135016486213816</v>
+        <v>0.90857776744956809</v>
       </c>
       <c r="B3" s="0">
         <v>0.94238156887147295</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0.55859267071681173</v>
+        <v>0.59564866301991515</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.77710916880275049</v>
+        <v>0.92363790892963282</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0.99696165797338665</v>
       </c>
       <c r="G5" s="0">
-        <v>0.69718219448208996</v>
+        <v>0.80302006553299365</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1167,10 +1167,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0.56157066932997401</v>
+        <v>0.79123943850355305</v>
       </c>
       <c r="E6" s="0">
-        <v>0.69081088374733501</v>
+        <v>0.99696165797338665</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0.98411217684819685</v>
       </c>
       <c r="H6" s="0">
-        <v>0.68217423585159132</v>
+        <v>0.82511132825207745</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>0.80302006553299365</v>
       </c>
       <c r="F7" s="0">
-        <v>0.82636531918632627</v>
+        <v>0.98411217684819685</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="0">
-        <v>0.56509924888810992</v>
+        <v>0.74084123466414242</v>
       </c>
       <c r="AL7" s="0">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="0">
-        <v>0.82733756859705021</v>
+        <v>0.87643143747697461</v>
       </c>
       <c r="AC8" s="0">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="BM8" s="0">
-        <v>0.53861300486723795</v>
+        <v>0.86075471907173673</v>
       </c>
       <c r="BN8" s="0">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0.54774604592338239</v>
+        <v>0.76598992227000195</v>
       </c>
       <c r="H9" s="0">
         <v>0</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0.5405325045821987</v>
+        <v>0.71896988369134252</v>
       </c>
       <c r="I10" s="0">
-        <v>0.50636589233540741</v>
+        <v>0.90237793757470097</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>0.64260283642990368</v>
+        <v>0.95763051443042213</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="0">
-        <v>0.62094706731405813</v>
+        <v>0.68311202186998088</v>
       </c>
       <c r="J12" s="0">
         <v>0.95763051443042213</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="0">
-        <v>0.76142900880100051</v>
+        <v>0.81651812125869283</v>
       </c>
       <c r="AD12" s="0">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="AZ12" s="0">
-        <v>0.71859990068342205</v>
+        <v>0.95373931898906439</v>
       </c>
       <c r="BA12" s="0">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0.81848426346739156</v>
+        <v>0.84650860616132095</v>
       </c>
       <c r="L13" s="0">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="M14" s="0">
-        <v>0.55264948317746398</v>
+        <v>0.6037777638085795</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>0.92749618169597614</v>
+        <v>0.977523975889241</v>
       </c>
       <c r="P14" s="0">
-        <v>0.6176369080437778</v>
+        <v>0.88839759665890594</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0.66999757522793124</v>
+        <v>0.76471343332236463</v>
       </c>
       <c r="N15" s="0">
         <v>0.977523975889241</v>
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>0.85542460553081923</v>
+        <v>0.93387874026421835</v>
       </c>
       <c r="Q15" s="0">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="BO15" s="0">
-        <v>0.75419995570038156</v>
+        <v>0.86387936815792998</v>
       </c>
       <c r="BP15" s="0">
         <v>0</v>
@@ -3475,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>0.96152938664416854</v>
+        <v>0.96797069199275576</v>
       </c>
       <c r="S17" s="0">
-        <v>0.69325175765526159</v>
+        <v>0.74784421934768019</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>0.82075424612048975</v>
+        <v>0.95932445662095667</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3792,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="BC18" s="0">
-        <v>0.75993841091242764</v>
+        <v>0.97765553253272763</v>
       </c>
       <c r="BD18" s="0">
         <v>0</v>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="0">
-        <v>0.6236658566171337</v>
+        <v>0.97831523863977532</v>
       </c>
       <c r="E19" s="0">
         <v>0</v>
@@ -3857,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="0">
-        <v>0.73322692880196216</v>
+        <v>0.95174943009481949</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="0">
-        <v>0.61884684233203768</v>
+        <v>0.95498377151947489</v>
       </c>
       <c r="L20" s="0">
         <v>0</v>
@@ -4102,10 +4102,10 @@
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>0.51595153400674032</v>
+        <v>0.89765911058623948</v>
       </c>
       <c r="V20" s="0">
-        <v>0.62094461670481149</v>
+        <v>0.82987138407112093</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4216,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="BG20" s="0">
-        <v>0.66796871190495455</v>
+        <v>0.84888054686749692</v>
       </c>
       <c r="BH20" s="0">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>0.69420085734265669</v>
+        <v>0.72607227614500136</v>
       </c>
       <c r="T21" s="0">
         <v>0.89765911058623948</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="BI21" s="0">
-        <v>0.50005655736422439</v>
+        <v>0.92367531385165713</v>
       </c>
       <c r="BJ21" s="0">
         <v>0</v>
@@ -4514,19 +4514,19 @@
         <v>0.82987138407112093</v>
       </c>
       <c r="U22" s="0">
-        <v>0.64889378505391337</v>
+        <v>0.72311986462848243</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0.8592626117730866</v>
+        <v>0.86495942426175643</v>
       </c>
       <c r="X22" s="0">
         <v>0.85137562759578378</v>
       </c>
       <c r="Y22" s="0">
-        <v>0.56220930271478575</v>
+        <v>0.83911120180870913</v>
       </c>
       <c r="Z22" s="0">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>0.55560298824483501</v>
+        <v>0.8310962431291854</v>
       </c>
       <c r="V23" s="0">
         <v>0.86495942426175643</v>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0.54859074076683145</v>
+        <v>0.92566355582351145</v>
       </c>
       <c r="Y23" s="0">
         <v>0</v>
@@ -4923,13 +4923,13 @@
         <v>0</v>
       </c>
       <c r="T24" s="0">
-        <v>0.54458975504328377</v>
+        <v>0.79752326907089421</v>
       </c>
       <c r="U24" s="0">
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0.77833423355246301</v>
+        <v>0.85137562759578378</v>
       </c>
       <c r="W24" s="0">
         <v>0.92566355582351145</v>
@@ -4938,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>0.61303560330334594</v>
+        <v>0.74771552585574785</v>
       </c>
       <c r="Z24" s="0">
         <v>0</v>
@@ -5192,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="AO25" s="0">
-        <v>0.53391319009309313</v>
+        <v>0.94238932290495681</v>
       </c>
       <c r="AP25" s="0">
         <v>0</v>
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="0">
-        <v>0.6102350444089879</v>
+        <v>0.96784950398960912</v>
       </c>
       <c r="Q27" s="0">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0.54504956236287061</v>
+        <v>0.85187950786230926</v>
       </c>
       <c r="Z27" s="0">
         <v>0</v>
@@ -5565,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0.80414101688276374</v>
+        <v>0.89943472178856365</v>
       </c>
       <c r="AC27" s="0">
         <v>0.70278718447414645</v>
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="BP27" s="0">
-        <v>0.54758261758543625</v>
+        <v>0.78427524381709168</v>
       </c>
     </row>
     <row r="28">
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0.64219274872529675</v>
+        <v>0.68513186254370462</v>
       </c>
       <c r="AA28" s="0">
         <v>0.89943472178856365</v>
@@ -5974,16 +5974,16 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0.52072348279310832</v>
+        <v>0.70278718447414645</v>
       </c>
       <c r="AB29" s="0">
-        <v>0.61496816954558087</v>
+        <v>0.83026872676076091</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0.60414575678988169</v>
+        <v>0.79010521132929801</v>
       </c>
       <c r="AE29" s="0">
         <v>0</v>
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="AL29" s="0">
-        <v>0.80872614217103578</v>
+        <v>0.90873099797151324</v>
       </c>
       <c r="AM29" s="0">
         <v>0</v>
@@ -6198,7 +6198,7 @@
         <v>0.66165226430587532</v>
       </c>
       <c r="AG30" s="0">
-        <v>0.53399324897443745</v>
+        <v>0.85694789969865748</v>
       </c>
       <c r="AH30" s="0">
         <v>0</v>
@@ -6240,7 +6240,7 @@
         <v>0</v>
       </c>
       <c r="AU30" s="0">
-        <v>0.73004246428833985</v>
+        <v>0.93179365677817205</v>
       </c>
       <c r="AV30" s="0">
         <v>0</v>
@@ -6401,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>0.79584439042381505</v>
+        <v>0.95717108671298656</v>
       </c>
       <c r="AG31" s="0">
         <v>0</v>
@@ -6449,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="AV31" s="0">
-        <v>0.51579263049573099</v>
+        <v>0.7595440454290433</v>
       </c>
       <c r="AW31" s="0">
         <v>0</v>
@@ -6601,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>0.5518009192415998</v>
+        <v>0.66165226430587532</v>
       </c>
       <c r="AE32" s="0">
         <v>0.95717108671298656</v>
@@ -6679,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="BD32" s="0">
-        <v>0.83160765221258337</v>
+        <v>0.86028170716746599</v>
       </c>
       <c r="BE32" s="0">
         <v>0</v>
@@ -6759,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="0">
-        <v>0.5479840800949396</v>
+        <v>0.57653571387069247</v>
       </c>
       <c r="O33" s="0">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0.509377029062551</v>
+        <v>0.68359465084969939</v>
       </c>
       <c r="AG34" s="0">
         <v>0</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="R35" s="0">
-        <v>0.56861236927128633</v>
+        <v>0.93544041311332138</v>
       </c>
       <c r="S35" s="0">
         <v>0</v>
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="AH35" s="0">
-        <v>0.53191830707136178</v>
+        <v>0.93315927980153424</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0.73465437641279319</v>
+        <v>0.85975321853527498</v>
       </c>
       <c r="AI36" s="0">
         <v>0</v>
@@ -7446,7 +7446,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0.52885598305139103</v>
+        <v>0.81430768043148061</v>
       </c>
       <c r="AL36" s="0">
         <v>0</v>
@@ -7536,7 +7536,7 @@
         <v>0</v>
       </c>
       <c r="BO36" s="0">
-        <v>0.92880039097368172</v>
+        <v>0.92951118300559332</v>
       </c>
       <c r="BP36" s="0">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0.6407792696565735</v>
+        <v>0.78709739717464389</v>
       </c>
       <c r="AJ37" s="0">
         <v>0.81430768043148061</v>
@@ -7858,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="0">
-        <v>0.50941622930109265</v>
+        <v>0.97791225236266466</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
@@ -7867,7 +7867,7 @@
         <v>0.7107569563345576</v>
       </c>
       <c r="AN38" s="0">
-        <v>0.595619197257377</v>
+        <v>0.95894463578791989</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0.81023027651874158</v>
+        <v>0.92789696494562479</v>
       </c>
       <c r="AL39" s="0">
-        <v>0.59590842181949855</v>
+        <v>0.7107569563345576</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0.80953868684292218</v>
+        <v>0.98473017160078924</v>
       </c>
       <c r="AO39" s="0">
-        <v>0.77464261105163434</v>
+        <v>0.8575503709081771</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8383,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="0">
-        <v>0.70404417132840091</v>
+        <v>0.77893168565552084</v>
       </c>
       <c r="G41" s="0">
         <v>0</v>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0.88909937342557699</v>
+        <v>0.97921125650183138</v>
       </c>
       <c r="AO42" s="0">
         <v>0</v>
@@ -8700,10 +8700,10 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0.52356791235319922</v>
+        <v>0.58535744654139887</v>
       </c>
       <c r="AR42" s="0">
-        <v>0.56065378974661906</v>
+        <v>0.98484275032008139</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8867,7 +8867,7 @@
         <v>0</v>
       </c>
       <c r="AD43" s="0">
-        <v>0.75829679136759165</v>
+        <v>0.96725976646402345</v>
       </c>
       <c r="AE43" s="0">
         <v>0</v>
@@ -8909,10 +8909,10 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0.7622213105350224</v>
+        <v>0.97273192343797754</v>
       </c>
       <c r="AS43" s="0">
-        <v>0.88246936329819525</v>
+        <v>0.97226618587862534</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9136,7 +9136,7 @@
         <v>0</v>
       </c>
       <c r="AY44" s="0">
-        <v>0.6583330049021483</v>
+        <v>0.92196230513509525</v>
       </c>
       <c r="AZ44" s="0">
         <v>0</v>
@@ -9327,10 +9327,10 @@
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0.83031309351407401</v>
+        <v>0.86612084377235421</v>
       </c>
       <c r="AU45" s="0">
-        <v>0.70505503972796602</v>
+        <v>0.95090214985537114</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9375,7 +9375,7 @@
         <v>0</v>
       </c>
       <c r="BJ45" s="0">
-        <v>0.59793853261961294</v>
+        <v>0.89604441386799372</v>
       </c>
       <c r="BK45" s="0">
         <v>0</v>
@@ -9461,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="V46" s="0">
-        <v>0.67162809655387301</v>
+        <v>0.70557852391333697</v>
       </c>
       <c r="W46" s="0">
         <v>0</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0.80087821621395783</v>
+        <v>0.89953647124635716</v>
       </c>
       <c r="AU48" s="0">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0.55167472245964877</v>
+        <v>0.59170210821615332</v>
       </c>
       <c r="AX48" s="0">
         <v>0</v>
@@ -10067,7 +10067,7 @@
         <v>0</v>
       </c>
       <c r="R49" s="0">
-        <v>0.66511174447351595</v>
+        <v>0.78293920612147772</v>
       </c>
       <c r="S49" s="0">
         <v>0</v>
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="Z49" s="0">
-        <v>0.75512143835692669</v>
+        <v>0.78229538925007391</v>
       </c>
       <c r="AA49" s="0">
         <v>0</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0.5306810510265334</v>
+        <v>0.87203526097433981</v>
       </c>
       <c r="AV49" s="0">
         <v>0.59170210821615332</v>
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>0.78782600295506233</v>
+        <v>0.89642852669314155</v>
       </c>
       <c r="AY49" s="0">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>0.63469889385705924</v>
+        <v>0.69460217461840479</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10423,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="BP50" s="0">
-        <v>0.71134839057729216</v>
+        <v>0.87330234346463964</v>
       </c>
     </row>
     <row r="51">
@@ -10494,7 +10494,7 @@
         <v>0</v>
       </c>
       <c r="W51" s="0">
-        <v>0.61887850636758124</v>
+        <v>0.93389752844565654</v>
       </c>
       <c r="X51" s="0">
         <v>0</v>
@@ -10584,7 +10584,7 @@
         <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>0.70382638944109654</v>
+        <v>0.92541080281146004</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="0">
-        <v>0.72033720510767008</v>
+        <v>0.97947392091901975</v>
       </c>
       <c r="K52" s="0">
         <v>0</v>
@@ -10793,7 +10793,7 @@
         <v>0.92493357215075633</v>
       </c>
       <c r="BB52" s="0">
-        <v>0.80503028374822561</v>
+        <v>0.85927754259126177</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10993,13 +10993,13 @@
         <v>0.92541080281146004</v>
       </c>
       <c r="AZ53" s="0">
-        <v>0.62872566555885123</v>
+        <v>0.92493357215075633</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0.52152116308548879</v>
+        <v>0.59307613602548281</v>
       </c>
       <c r="BC53" s="0">
         <v>0</v>
@@ -11208,10 +11208,10 @@
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0.67025802556525971</v>
+        <v>0.90677663940177866</v>
       </c>
       <c r="BD54" s="0">
-        <v>0.61588949390090475</v>
+        <v>0.85856788350170377</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11417,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0.51607160542515951</v>
+        <v>0.72624677209133304</v>
       </c>
       <c r="BE55" s="0">
         <v>0.92710845165163569</v>
@@ -11626,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>0.84322710344511753</v>
+        <v>0.98880141092256923</v>
       </c>
       <c r="BF56" s="0">
         <v>0.82984625027572334</v>
@@ -11709,7 +11709,7 @@
         <v>0</v>
       </c>
       <c r="P57" s="0">
-        <v>0.65340423507362932</v>
+        <v>0.80321310712466598</v>
       </c>
       <c r="Q57" s="0">
         <v>0</v>
@@ -11754,7 +11754,7 @@
         <v>0</v>
       </c>
       <c r="AE57" s="0">
-        <v>0.72345127282415966</v>
+        <v>0.73802895309655459</v>
       </c>
       <c r="AF57" s="0">
         <v>0</v>
@@ -11826,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0.77408785006711178</v>
+        <v>0.92710845165163569</v>
       </c>
       <c r="BD57" s="0">
         <v>0.98880141092256923</v>
@@ -11835,7 +11835,7 @@
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>0.53370664291597403</v>
+        <v>0.66141073483808421</v>
       </c>
       <c r="BG57" s="0">
         <v>0.53849100677712158</v>
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0.70233761258984562</v>
+        <v>0.82984625027572334</v>
       </c>
       <c r="BE58" s="0">
         <v>0.66141073483808421</v>
@@ -12244,10 +12244,10 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>0.52283373934805444</v>
+        <v>0.53849100677712158</v>
       </c>
       <c r="BF59" s="0">
-        <v>0.95773504148447541</v>
+        <v>0.99429339646037485</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
@@ -12330,7 +12330,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="0">
-        <v>0.69259337093935502</v>
+        <v>0.99756530384697739</v>
       </c>
       <c r="R60" s="0">
         <v>0</v>
@@ -12453,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>0.70791095026111639</v>
+        <v>0.84765055736115091</v>
       </c>
       <c r="BG60" s="0">
         <v>0</v>
@@ -12530,7 +12530,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="0">
-        <v>0.83221370644713888</v>
+        <v>0.98237686697124971</v>
       </c>
       <c r="P61" s="0">
         <v>0</v>
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0.55476396870590028</v>
+        <v>0.92411397332389023</v>
       </c>
       <c r="BH61" s="0">
         <v>0</v>
@@ -12874,13 +12874,13 @@
         <v>0</v>
       </c>
       <c r="BI62" s="0">
-        <v>0.77416097312829923</v>
+        <v>0.93999782097618656</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0.5627153131765873</v>
+        <v>0.68251984785398356</v>
       </c>
       <c r="BL62" s="0">
         <v>0</v>
@@ -13029,7 +13029,7 @@
         <v>0</v>
       </c>
       <c r="AR63" s="0">
-        <v>0.79023737910039316</v>
+        <v>0.94345499448551051</v>
       </c>
       <c r="AS63" s="0">
         <v>0</v>
@@ -13109,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="0">
-        <v>0.91237715195033331</v>
+        <v>0.91734552667798186</v>
       </c>
       <c r="C64" s="0">
         <v>0</v>
@@ -13220,7 +13220,7 @@
         <v>0</v>
       </c>
       <c r="AM64" s="0">
-        <v>0.68131710354916764</v>
+        <v>0.76723603706020294</v>
       </c>
       <c r="AN64" s="0">
         <v>0</v>
@@ -13292,13 +13292,13 @@
         <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>0.55250407476710173</v>
+        <v>0.7670875778428452</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0.70667668004770512</v>
+        <v>0.97072504043722274</v>
       </c>
       <c r="BN64" s="0">
         <v>0</v>
@@ -13429,7 +13429,7 @@
         <v>0</v>
       </c>
       <c r="AN65" s="0">
-        <v>0.66524447125342179</v>
+        <v>0.79576085507985284</v>
       </c>
       <c r="AO65" s="0">
         <v>0</v>
@@ -13498,7 +13498,7 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>0.71812824791357821</v>
+        <v>0.73978258762242644</v>
       </c>
       <c r="BL65" s="0">
         <v>0.97072504043722274</v>
@@ -13548,7 +13548,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="0">
-        <v>0.7004675793760915</v>
+        <v>0.79132947725125402</v>
       </c>
       <c r="L66" s="0">
         <v>0</v>
@@ -13710,13 +13710,13 @@
         <v>0</v>
       </c>
       <c r="BM66" s="0">
-        <v>0.56950568374391941</v>
+        <v>0.99105769783928843</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0.54863731377291036</v>
+        <v>0.56280737080821264</v>
       </c>
       <c r="BP66" s="0">
         <v>0</v>
@@ -13901,7 +13901,7 @@
         <v>0</v>
       </c>
       <c r="BH67" s="0">
-        <v>0.64801759417753169</v>
+        <v>0.97604116962971599</v>
       </c>
       <c r="BI67" s="0">
         <v>0</v>
@@ -13916,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0.65923131450623806</v>
+        <v>0.75331474270355891</v>
       </c>
       <c r="BN67" s="0">
         <v>0.56280737080821264</v>
@@ -13925,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0.7626068551044507</v>
+        <v>0.89083045333898614</v>
       </c>
     </row>
     <row r="68">
